--- a/Giá trị test_bench.xlsx
+++ b/Giá trị test_bench.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thiet ke so\Digital_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D28D5-A7D2-4E62-B332-E4C9741D13D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A593157-3B68-41AB-BCDE-C1BC6BF2B1BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED3B0AC-14BB-44EE-8854-99B0693AC4BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,10 +1136,11 @@
         <v>528</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <f xml:space="preserve"> 256 *E76+E77</f>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -1187,10 +1187,11 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <f>256*E80+E81</f>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1223,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1238,10 +1239,11 @@
         <v>347</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <f xml:space="preserve"> 256*E84+E85</f>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -1274,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -1289,10 +1291,11 @@
         <v>722</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <f>256*E88+E89</f>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -1325,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -1340,10 +1343,11 @@
         <v>1077</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <f xml:space="preserve"> 256*E92+E93</f>
+        <v>903</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -1353,6 +1357,9 @@
       <c r="B94">
         <v>0</v>
       </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
@@ -1361,6 +1368,9 @@
       <c r="B95">
         <v>0</v>
       </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
@@ -1369,6 +1379,9 @@
       <c r="B96">
         <v>0</v>
       </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
@@ -1380,6 +1393,12 @@
       <c r="C97">
         <v>0</v>
       </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
       <c r="I97">
         <v>0</v>
       </c>
@@ -1391,6 +1410,9 @@
       <c r="B98">
         <v>0</v>
       </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
@@ -1399,6 +1421,9 @@
       <c r="B99">
         <v>0</v>
       </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
@@ -1407,6 +1432,9 @@
       <c r="B100">
         <v>2</v>
       </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
@@ -1419,6 +1447,13 @@
         <f xml:space="preserve"> 256 * B100 + B101</f>
         <v>544</v>
       </c>
+      <c r="E101">
+        <v>39</v>
+      </c>
+      <c r="F101">
+        <f>256*E100+E101</f>
+        <v>295</v>
+      </c>
       <c r="I101">
         <v>0</v>
       </c>
@@ -1430,6 +1465,9 @@
       <c r="B102">
         <v>0</v>
       </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
@@ -1438,6 +1476,9 @@
       <c r="B103">
         <v>0</v>
       </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
@@ -1446,6 +1487,9 @@
       <c r="B104">
         <v>3</v>
       </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
@@ -1458,6 +1502,13 @@
         <f xml:space="preserve"> 256 * B104 + B105</f>
         <v>981</v>
       </c>
+      <c r="E105">
+        <v>206</v>
+      </c>
+      <c r="F105">
+        <f>256*E104+E105</f>
+        <v>718</v>
+      </c>
       <c r="I105">
         <v>0</v>
       </c>
@@ -1469,6 +1520,9 @@
       <c r="B106">
         <v>0</v>
       </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
@@ -1477,6 +1531,9 @@
       <c r="B107">
         <v>0</v>
       </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -1485,6 +1542,9 @@
       <c r="B108">
         <v>5</v>
       </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
@@ -1497,6 +1557,13 @@
         <f xml:space="preserve"> 256 * B108 + B109</f>
         <v>1371</v>
       </c>
+      <c r="E109">
+        <v>193</v>
+      </c>
+      <c r="F109">
+        <f>256*E108+E109</f>
+        <v>961</v>
+      </c>
       <c r="I109">
         <v>0</v>
       </c>
@@ -1505,413 +1572,730 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>198</v>
+      </c>
+      <c r="F113">
+        <f>256*E112+E113</f>
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>95</v>
+      </c>
+      <c r="F117">
+        <f>256*E116+E117</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>28</v>
+      </c>
+      <c r="F125">
+        <f>256*E124+E125</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>118</v>
+      </c>
+      <c r="F129">
+        <f>256*E128+E129</f>
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>217</v>
+      </c>
+      <c r="F133">
+        <f>256*E132+E133</f>
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>7</v>
+      </c>
+      <c r="F137">
+        <f>256*E136+E137</f>
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>44</v>
+      </c>
+      <c r="F141">
+        <f>256*E140+E141</f>
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <f>256*E148+E149</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>255</v>
+      </c>
+      <c r="F153">
+        <f>256*E152+E153</f>
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>240</v>
+      </c>
+      <c r="F157">
+        <f>256*E156+E157</f>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>149</v>
+      </c>
+      <c r="F161">
+        <f>256*E160+E161</f>
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>164</v>
+      </c>
+      <c r="F165">
+        <f>256*E164+E165</f>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>136</v>
+      </c>
+      <c r="F173">
+        <f>256*E172+E173</f>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>237</v>
+      </c>
+      <c r="F177">
+        <f>256*E176+E177</f>
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <v>172</v>
+      </c>
+      <c r="F181">
+        <f>256*E180+E181</f>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>171</v>
+      </c>
+      <c r="F185">
+        <f>256*E184+E185</f>
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>15</v>
+      </c>
+      <c r="F189">
+        <f>256*E188+E189</f>
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>

--- a/Giá trị test_bench.xlsx
+++ b/Giá trị test_bench.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thiet ke so\Digital_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,11 +393,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="H237" sqref="H237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
@@ -651,7 +659,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -659,7 +667,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -667,7 +675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -675,7 +683,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -683,7 +691,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -691,7 +699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -699,7 +707,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -707,7 +715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -715,32 +723,32 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -750,8 +758,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -761,8 +772,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -772,8 +786,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -789,8 +806,14 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -800,8 +823,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -811,8 +837,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -822,8 +851,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -839,8 +871,14 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -850,8 +888,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -861,8 +902,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -872,8 +916,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -889,8 +936,14 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -900,8 +953,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -911,8 +967,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -922,8 +981,11 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -939,8 +1001,14 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -950,8 +1018,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -961,8 +1032,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -972,8 +1046,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -989,8 +1066,14 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1000,8 +1083,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1011,8 +1097,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1022,8 +1111,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1039,8 +1131,14 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1050,8 +1148,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1061,8 +1162,11 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1072,8 +1176,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1090,8 +1197,14 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1101,8 +1214,11 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1112,8 +1228,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1123,8 +1242,11 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1142,8 +1264,14 @@
         <f xml:space="preserve"> 256 *E76+E77</f>
         <v>121</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1153,8 +1281,11 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1164,8 +1295,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1175,8 +1309,11 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1193,8 +1330,14 @@
         <f>256*E80+E81</f>
         <v>347</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1204,8 +1347,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1215,8 +1361,11 @@
       <c r="E83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1226,8 +1375,11 @@
       <c r="E84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1245,8 +1397,15 @@
         <f xml:space="preserve"> 256*E84+E85</f>
         <v>528</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>121</v>
+      </c>
+      <c r="I85">
+        <f>256*H84+H85</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1256,8 +1415,11 @@
       <c r="E86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1267,8 +1429,11 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1278,8 +1443,11 @@
       <c r="E88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1297,8 +1465,15 @@
         <f>256*E88+E89</f>
         <v>754</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>91</v>
+      </c>
+      <c r="I89">
+        <f>256*H88+H89</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1308,8 +1483,11 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1319,8 +1497,11 @@
       <c r="E91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1330,8 +1511,11 @@
       <c r="E92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1349,8 +1533,15 @@
         <f xml:space="preserve"> 256*E92+E93</f>
         <v>903</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>16</v>
+      </c>
+      <c r="I93">
+        <f>256*H92+H93</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1360,8 +1551,11 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1371,8 +1565,11 @@
       <c r="E95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1381,6 +1578,9 @@
       </c>
       <c r="E96">
         <v>0</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -1399,8 +1599,12 @@
       <c r="F97">
         <v>0</v>
       </c>
+      <c r="H97">
+        <v>242</v>
+      </c>
       <c r="I97">
-        <v>0</v>
+        <f>256*H96+H97</f>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -1413,6 +1617,9 @@
       <c r="E98">
         <v>0</v>
       </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
@@ -1424,6 +1631,9 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
@@ -1435,6 +1645,9 @@
       <c r="E100">
         <v>1</v>
       </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
@@ -1454,8 +1667,12 @@
         <f>256*E100+E101</f>
         <v>295</v>
       </c>
+      <c r="H101">
+        <v>135</v>
+      </c>
       <c r="I101">
-        <v>0</v>
+        <f>256*H100+H101</f>
+        <v>903</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -1468,6 +1685,9 @@
       <c r="E102">
         <v>0</v>
       </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
@@ -1479,6 +1699,9 @@
       <c r="E103">
         <v>0</v>
       </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
@@ -1490,6 +1713,9 @@
       <c r="E104">
         <v>2</v>
       </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
@@ -1509,8 +1735,12 @@
         <f>256*E104+E105</f>
         <v>718</v>
       </c>
+      <c r="H105">
+        <v>53</v>
+      </c>
       <c r="I105">
-        <v>0</v>
+        <f>256*H104+H105</f>
+        <v>1077</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -1523,6 +1753,9 @@
       <c r="E106">
         <v>0</v>
       </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
@@ -1534,6 +1767,9 @@
       <c r="E107">
         <v>0</v>
       </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -1545,6 +1781,9 @@
       <c r="E108">
         <v>3</v>
       </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
@@ -1564,8 +1803,12 @@
         <f>256*E108+E109</f>
         <v>961</v>
       </c>
+      <c r="H109">
+        <v>250</v>
+      </c>
       <c r="I109">
-        <v>0</v>
+        <f>256*H108+H109</f>
+        <v>1274</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -1575,6 +1818,9 @@
       <c r="E110">
         <v>0</v>
       </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
@@ -1583,6 +1829,9 @@
       <c r="E111">
         <v>0</v>
       </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
@@ -1591,8 +1840,11 @@
       <c r="E112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -1603,32 +1855,47 @@
         <f>256*E112+E113</f>
         <v>1222</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="E116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -1639,32 +1906,48 @@
         <f>256*E116+E117</f>
         <v>1375</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>183</v>
+      </c>
+      <c r="I117">
+        <f>256*H116+H117</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -1674,32 +1957,48 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>188</v>
+      </c>
+      <c r="I121">
+        <f>256*H120+H121</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -1710,32 +2009,48 @@
         <f>256*E124+E125</f>
         <v>540</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>117</v>
+      </c>
+      <c r="I125">
+        <f>256*H124+H125</f>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="E128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -1746,32 +2061,48 @@
         <f>256*E128+E129</f>
         <v>1142</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>76</v>
+      </c>
+      <c r="I129">
+        <f>256*H128+H129</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="E132">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -1782,32 +2113,48 @@
         <f>256*E132+E133</f>
         <v>1497</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>148</v>
+      </c>
+      <c r="I133">
+        <f>256*H132+H133</f>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="E136">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -1818,32 +2165,48 @@
         <f>256*E136+E137</f>
         <v>1799</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>178</v>
+      </c>
+      <c r="I137">
+        <f>256*H136+H137</f>
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="E140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -1854,32 +2217,48 @@
         <f>256*E140+E141</f>
         <v>2092</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>160</v>
+      </c>
+      <c r="I141">
+        <f>256*H140+H141</f>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -1889,32 +2268,47 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="E148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -1925,32 +2319,48 @@
         <f>256*E148+E149</f>
         <v>770</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>67</v>
+      </c>
+      <c r="I149">
+        <f>256*H148+H149</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="E152">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -1961,32 +2371,48 @@
         <f>256*E152+E153</f>
         <v>1535</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>46</v>
+      </c>
+      <c r="I153">
+        <f>256*H152+H153</f>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="E156">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -1997,32 +2423,48 @@
         <f>256*E156+E157</f>
         <v>2032</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>138</v>
+      </c>
+      <c r="I157">
+        <f>256*H156+H157</f>
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="E160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -2033,32 +2475,48 @@
         <f>256*E160+E161</f>
         <v>2453</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <v>239</v>
+      </c>
+      <c r="I161">
+        <f>256*H160+H161</f>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="E164">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -2069,32 +2527,48 @@
         <f>256*E164+E165</f>
         <v>2980</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <v>174</v>
+      </c>
+      <c r="I165">
+        <f>256*H164+H165</f>
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -2104,32 +2578,48 @@
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <v>182</v>
+      </c>
+      <c r="I169">
+        <f>256*H168+H169</f>
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="E172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -2140,32 +2630,48 @@
         <f>256*E172+E173</f>
         <v>904</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H173">
+        <v>42</v>
+      </c>
+      <c r="I173">
+        <f>256*H172+H173</f>
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="E176">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -2176,32 +2682,47 @@
         <f>256*E176+E177</f>
         <v>1773</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="E180">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -2212,32 +2733,48 @@
         <f>256*E180+E181</f>
         <v>2476</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <v>171</v>
+      </c>
+      <c r="I181">
+        <f>256*H180+H181</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="E184">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -2248,32 +2785,48 @@
         <f>256*E184+E185</f>
         <v>2987</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <v>100</v>
+      </c>
+      <c r="I185">
+        <f>256*H184+H185</f>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="E188">
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -2284,340 +2837,607 @@
         <f>256*E188+E189</f>
         <v>3599</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>26</v>
+      </c>
+      <c r="I189">
+        <f>256*H188+H189</f>
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <v>212</v>
+      </c>
+      <c r="I193">
+        <f>256*H192+H193</f>
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <v>105</v>
+      </c>
+      <c r="I197">
+        <f>256*H196+H197</f>
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <v>203</v>
+      </c>
+      <c r="I201">
+        <f>256*H200+H201</f>
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <v>187</v>
+      </c>
+      <c r="I205">
+        <f>256*H204+H205</f>
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H213">
+        <v>3</v>
+      </c>
+      <c r="I213">
+        <f>256*H212+H213</f>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H217">
+        <v>215</v>
+      </c>
+      <c r="I217">
+        <f>256*H216+H217</f>
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <v>211</v>
+      </c>
+      <c r="I221">
+        <f>256*H220+H221</f>
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H225">
+        <v>75</v>
+      </c>
+      <c r="I225">
+        <f>256*H224+H225</f>
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H228">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H229">
+        <v>60</v>
+      </c>
+      <c r="I229">
+        <f>256*H228+H229</f>
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H233">
+        <v>188</v>
+      </c>
+      <c r="I233">
+        <f>256*H232+H233</f>
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H236">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <v>111</v>
+      </c>
+      <c r="I237">
+        <f>256*H236+H237</f>
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
